--- a/documents/Lab4/report36th.xlsx
+++ b/documents/Lab4/report36th.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\独孤逸飞\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gdansk University of Technology\sixth_semester\LargeScaleEnterpriseApplication\Lab\Repository\single_sign_on\documents\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8391F8C-ECBB-4212-912B-270ACB5BB1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB5B214-D956-4E21-8C56-D0C1A4C5A952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis - Longest Logs" sheetId="1" r:id="rId1"/>
@@ -134,6 +134,12 @@
             <c:symbol val="star"/>
             <c:size val="5"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Analysis - Longest Logs'!$A$2:$A$37</c:f>
@@ -395,6 +401,13 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -432,6 +445,13 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -462,12 +482,21 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:prstDash val="dash"/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -785,6 +814,13 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -822,6 +858,13 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1251,7 +1294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1562,7 +1607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/documents/Lab4/report36th.xlsx
+++ b/documents/Lab4/report36th.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\独孤逸飞\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gdansk University of Technology\sixth_semester\LargeScaleEnterpriseApplication\Lab\Repository\single_sign_on\documents\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8391F8C-ECBB-4212-912B-270ACB5BB1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E00FF-144A-4ECE-A6E5-237CA0F315E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,6 +134,12 @@
             <c:symbol val="star"/>
             <c:size val="5"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Analysis - Longest Logs'!$A$2:$A$37</c:f>
@@ -432,6 +438,13 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -462,12 +475,21 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:prstDash val="dash"/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -822,6 +844,13 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1251,7 +1280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1562,7 +1593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
